--- a/Mechanical Testing and Analysis/Rae2021/CaMa.xlsx
+++ b/Mechanical Testing and Analysis/Rae2021/CaMa.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/auriolrae/Dynamic-Strength-and-Fragmentation/Mechanical Testing and Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/auriolrae/Dynamic-Strength-and-Fragmentation/Mechanical Testing and Analysis/Rae2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD39E05-DAC7-8F46-9DD3-EFE8C1F611A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD50587-7992-594E-B2B1-024032FE5CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-1780" windowWidth="38400" windowHeight="21140" xr2:uid="{82852CF0-6098-E24F-8D6F-2C3D11CAE912}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="66">
   <si>
     <t>Name</t>
   </si>
@@ -169,13 +169,7 @@
     <t>CaMa_SHPB_009_Ti25_45b_Al12b_0_001</t>
   </si>
   <si>
-    <t>CaMa_SHPB_010_Ti25_35b_Al12b_0_001</t>
-  </si>
-  <si>
     <t>CaMa_SHPB_011_Ti25_35b_Al12b_0_001</t>
-  </si>
-  <si>
-    <t>CaMa_SHPB_012_Ti25_45b_Al12b_0_001</t>
   </si>
   <si>
     <t>CaMa_SHPB_013_Ti25_45b_Al12b_0_001</t>
@@ -697,12 +691,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C5B88F-5F4C-0944-864A-CF8D297690A4}">
-  <dimension ref="A1:V37"/>
+  <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C5" sqref="C5"/>
+      <selection pane="topRight" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -973,7 +967,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
@@ -1021,7 +1015,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>20</v>
@@ -1069,7 +1063,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>20</v>
@@ -1117,7 +1111,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>20</v>
@@ -1165,7 +1159,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>20</v>
@@ -1216,7 +1210,7 @@
         <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
@@ -1272,7 +1266,7 @@
         <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12" s="2">
         <v>3</v>
@@ -1328,7 +1322,7 @@
         <v>28</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2">
         <v>4</v>
@@ -1384,7 +1378,7 @@
         <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C14" s="2">
         <v>5</v>
@@ -1440,7 +1434,7 @@
         <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2">
         <v>6</v>
@@ -1496,7 +1490,7 @@
         <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2">
         <v>7</v>
@@ -1552,7 +1546,7 @@
         <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2">
         <v>6.5</v>
@@ -1608,7 +1602,7 @@
         <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C18" s="2">
         <v>5.5</v>
@@ -1664,7 +1658,7 @@
         <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2">
         <v>4.5</v>
@@ -1720,33 +1714,54 @@
         <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2">
         <v>3.5</v>
       </c>
       <c r="D20" s="2">
-        <v>39.44</v>
+        <v>42.05</v>
       </c>
       <c r="E20" s="2">
-        <v>39</v>
+        <v>38.89</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="5"/>
+      <c r="I20" s="5">
+        <v>146.1</v>
+      </c>
+      <c r="J20" s="5">
+        <v>5.7</v>
+      </c>
+      <c r="K20" s="5">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="L20" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="M20" s="5">
+        <v>31.6</v>
+      </c>
+      <c r="N20" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" s="8">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="R20" s="7">
+        <v>118.2</v>
+      </c>
+      <c r="S20" s="5">
+        <f>R20-Q20</f>
+        <v>102.1</v>
+      </c>
       <c r="U20" s="11"/>
       <c r="V20" s="4"/>
     </row>
@@ -1755,53 +1770,53 @@
         <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="D21" s="2">
-        <v>42.05</v>
+        <v>37.6</v>
       </c>
       <c r="E21" s="2">
-        <v>38.89</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5">
-        <v>146.1</v>
-      </c>
-      <c r="J21" s="5">
-        <v>5.7</v>
-      </c>
-      <c r="K21" s="5">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="L21" s="5">
-        <v>4.3</v>
-      </c>
-      <c r="M21" s="5">
-        <v>31.6</v>
-      </c>
-      <c r="N21" s="7">
+        <v>16</v>
+      </c>
+      <c r="G21" s="2">
+        <v>191.6</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2">
+        <v>92.1</v>
+      </c>
+      <c r="L21" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="M21" s="2">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="N21" s="2">
         <v>0.2</v>
       </c>
-      <c r="O21" s="2"/>
-      <c r="P21" s="8">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="Q21" s="7">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="R21" s="7">
-        <v>118.2</v>
+      <c r="O21" s="6">
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="5">
+        <v>100.8</v>
+      </c>
+      <c r="R21" s="5">
+        <v>205.3</v>
       </c>
       <c r="S21" s="5">
         <f>R21-Q21</f>
-        <v>102.1</v>
+        <v>104.50000000000001</v>
       </c>
       <c r="U21" s="11"/>
       <c r="V21" s="4"/>
@@ -1811,33 +1826,54 @@
         <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C22" s="2">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="D22" s="2">
-        <v>43.88</v>
+        <v>33.369999999999997</v>
       </c>
       <c r="E22" s="2">
-        <v>38.79</v>
+        <v>38.86</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="5"/>
+        <v>16</v>
+      </c>
+      <c r="G22" s="2">
+        <v>200.2</v>
+      </c>
+      <c r="H22" s="9">
+        <v>3.3</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9">
+        <v>190</v>
+      </c>
+      <c r="L22" s="9">
+        <v>31</v>
+      </c>
+      <c r="M22" s="9">
+        <v>22.9</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="O22" s="9">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9">
+        <v>168.5</v>
+      </c>
+      <c r="R22" s="9">
+        <v>246.3</v>
+      </c>
+      <c r="S22" s="5">
+        <f>R22-Q22</f>
+        <v>77.800000000000011</v>
+      </c>
       <c r="U22" s="11"/>
       <c r="V22" s="4"/>
     </row>
@@ -1846,53 +1882,53 @@
         <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C23" s="2">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="D23" s="2">
-        <v>37.6</v>
+        <v>29.68</v>
       </c>
       <c r="E23" s="2">
-        <v>39.799999999999997</v>
+        <v>38.89</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="2">
-        <v>191.6</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2">
-        <v>92.1</v>
-      </c>
-      <c r="L23" s="2">
-        <v>15.5</v>
-      </c>
-      <c r="M23" s="2">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="N23" s="2">
+        <v>204.4</v>
+      </c>
+      <c r="H23" s="9">
+        <v>5.9</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9">
+        <v>225.4</v>
+      </c>
+      <c r="L23" s="9">
+        <v>38.9</v>
+      </c>
+      <c r="M23" s="9">
+        <v>18.3</v>
+      </c>
+      <c r="N23" s="9">
         <v>0.2</v>
       </c>
-      <c r="O23" s="6">
-        <v>1.4200000000000001E-2</v>
-      </c>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="5">
-        <v>100.8</v>
-      </c>
-      <c r="R23" s="5">
-        <v>205.3</v>
+      <c r="O23" s="9">
+        <v>2.1299999999999999E-2</v>
+      </c>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9">
+        <v>189</v>
+      </c>
+      <c r="R23" s="9">
+        <v>268.2</v>
       </c>
       <c r="S23" s="5">
         <f>R23-Q23</f>
-        <v>104.50000000000001</v>
+        <v>79.199999999999989</v>
       </c>
       <c r="U23" s="11"/>
       <c r="V23" s="4"/>
@@ -1902,53 +1938,53 @@
         <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C24" s="2">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="D24" s="2">
-        <v>33.369999999999997</v>
+        <v>42.99</v>
       </c>
       <c r="E24" s="2">
-        <v>38.86</v>
+        <v>38.94</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G24" s="2">
-        <v>200.2</v>
+        <v>176.9</v>
       </c>
       <c r="H24" s="9">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9">
-        <v>190</v>
+        <v>68.5</v>
       </c>
       <c r="L24" s="9">
-        <v>31</v>
+        <v>15.1</v>
       </c>
       <c r="M24" s="9">
-        <v>22.9</v>
+        <v>37.4</v>
       </c>
       <c r="N24" s="9">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="O24" s="9">
-        <v>1.7600000000000001E-2</v>
+        <v>1.11E-2</v>
       </c>
       <c r="P24" s="9"/>
       <c r="Q24" s="9">
-        <v>168.5</v>
+        <v>88.9</v>
       </c>
       <c r="R24" s="9">
-        <v>246.3</v>
+        <v>184.3</v>
       </c>
       <c r="S24" s="5">
         <f>R24-Q24</f>
-        <v>77.800000000000011</v>
+        <v>95.4</v>
       </c>
       <c r="U24" s="11"/>
       <c r="V24" s="4"/>
@@ -1958,167 +1994,63 @@
         <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C25" s="2">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="D25" s="2">
-        <v>29.68</v>
+        <v>28.84</v>
       </c>
       <c r="E25" s="2">
-        <v>38.89</v>
+        <v>38.979999999999997</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="2">
-        <v>204.4</v>
-      </c>
-      <c r="H25" s="9">
-        <v>5.9</v>
-      </c>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9">
-        <v>225.4</v>
-      </c>
-      <c r="L25" s="9">
-        <v>38.9</v>
-      </c>
-      <c r="M25" s="9">
-        <v>18.3</v>
-      </c>
-      <c r="N25" s="9">
+        <v>212.6</v>
+      </c>
+      <c r="H25" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2">
+        <v>212.3</v>
+      </c>
+      <c r="L25" s="2">
+        <v>58.3</v>
+      </c>
+      <c r="M25" s="2">
+        <v>29.4</v>
+      </c>
+      <c r="N25" s="2">
         <v>0.2</v>
       </c>
-      <c r="O25" s="9">
-        <v>2.1299999999999999E-2</v>
-      </c>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9">
-        <v>189</v>
-      </c>
-      <c r="R25" s="9">
-        <v>268.2</v>
+      <c r="O25" s="2">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2">
+        <v>214</v>
+      </c>
+      <c r="R25" s="2">
+        <v>293.5</v>
       </c>
       <c r="S25" s="5">
         <f>R25-Q25</f>
-        <v>79.199999999999989</v>
+        <v>79.5</v>
       </c>
       <c r="U25" s="11"/>
       <c r="V25" s="4"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="2">
-        <v>4</v>
-      </c>
-      <c r="D26" s="2">
-        <v>42.99</v>
-      </c>
-      <c r="E26" s="2">
-        <v>38.94</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="2">
-        <v>176.9</v>
-      </c>
-      <c r="H26" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9">
-        <v>68.5</v>
-      </c>
-      <c r="L26" s="9">
-        <v>15.1</v>
-      </c>
-      <c r="M26" s="9">
-        <v>37.4</v>
-      </c>
-      <c r="N26" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="O26" s="9">
-        <v>1.11E-2</v>
-      </c>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9">
-        <v>88.9</v>
-      </c>
-      <c r="R26" s="9">
-        <v>184.3</v>
-      </c>
-      <c r="S26" s="5">
-        <f>R26-Q26</f>
-        <v>95.4</v>
-      </c>
-      <c r="U26" s="11"/>
+      <c r="U26" s="4"/>
       <c r="V26" s="4"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A27" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="2">
-        <v>7.3</v>
-      </c>
-      <c r="D27" s="2">
-        <v>28.84</v>
-      </c>
-      <c r="E27" s="2">
-        <v>38.979999999999997</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="2">
-        <v>212.6</v>
-      </c>
-      <c r="H27" s="2">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2">
-        <v>212.3</v>
-      </c>
-      <c r="L27" s="2">
-        <v>58.3</v>
-      </c>
-      <c r="M27" s="2">
-        <v>29.4</v>
-      </c>
-      <c r="N27" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="O27" s="2">
-        <v>1.7399999999999999E-2</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2">
-        <v>214</v>
-      </c>
-      <c r="R27" s="2">
-        <v>293.5</v>
-      </c>
-      <c r="S27" s="5">
-        <f>R27-Q27</f>
-        <v>79.5</v>
-      </c>
-      <c r="U27" s="11"/>
+      <c r="U27" s="4"/>
       <c r="V27" s="4"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
@@ -2152,14 +2084,6 @@
     <row r="35" spans="21:22" x14ac:dyDescent="0.2">
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
-    </row>
-    <row r="36" spans="21:22" x14ac:dyDescent="0.2">
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-    </row>
-    <row r="37" spans="21:22" x14ac:dyDescent="0.2">
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2194,69 +2118,69 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>54</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>55</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>56</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>57</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>58</v>
       </c>
-      <c r="J1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K1" t="s">
-        <v>60</v>
-      </c>
       <c r="L1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s">
         <v>51</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>52</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>53</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>54</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>55</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>56</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>57</v>
-      </c>
-      <c r="S1" t="s">
-        <v>58</v>
-      </c>
-      <c r="T1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2327,7 +2251,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2398,7 +2322,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2469,7 +2393,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2540,7 +2464,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2611,7 +2535,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2682,7 +2606,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2753,7 +2677,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2824,7 +2748,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2895,7 +2819,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B11">
         <v>20.367999999999999</v>
@@ -2966,7 +2890,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B12">
         <v>80.722999999999999</v>
@@ -3037,7 +2961,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13">
         <v>0</v>
